--- a/PCBs/shepherd_cape_v2.3/2021-12-02 Bestellung Mouser Digikey.xlsx
+++ b/PCBs/shepherd_cape_v2.3/2021-12-02 Bestellung Mouser Digikey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingmo\Documents\GitHub\shepherd_v2_planning\PCBs\shepherd_cape_v2.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4B22AC-C51B-46BB-B9AB-C44CDD75F78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E234F3-F92F-49F5-B35D-0CE311C15420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22032" yWindow="1056" windowWidth="23352" windowHeight="24972" xr2:uid="{6588C57D-8B73-49B8-A971-5DE8A19552C9}"/>
+    <workbookView xWindow="396" yWindow="396" windowWidth="29628" windowHeight="14376" xr2:uid="{6588C57D-8B73-49B8-A971-5DE8A19552C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-shepherd_v2" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
   <si>
     <t>Manufacturer PN</t>
   </si>
@@ -298,9 +298,6 @@
   </si>
   <si>
     <t>0.54</t>
-  </si>
-  <si>
-    <t>16 MHz</t>
   </si>
   <si>
     <t>Anzahl</t>
@@ -798,8 +795,8 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,13 +819,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -848,10 +845,10 @@
         <v>1000</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -871,7 +868,7 @@
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -891,7 +888,7 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -911,7 +908,7 @@
         <v>440</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -999,7 +996,7 @@
         <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1053,7 +1050,7 @@
         <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1090,7 +1087,7 @@
         <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1161,7 +1158,7 @@
         <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1181,7 +1178,7 @@
         <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1218,7 +1215,7 @@
         <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1320,7 +1317,7 @@
         <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1340,7 +1337,7 @@
         <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1355,9 +1352,6 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>90</v>
-      </c>
       <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1365,16 +1359,16 @@
         <v>5</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
         <v>98</v>
-      </c>
-      <c r="D32" t="s">
-        <v>99</v>
       </c>
       <c r="E32">
         <v>1000</v>
       </c>
       <c r="G32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
@@ -1382,10 +1376,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
         <v>105</v>
-      </c>
-      <c r="D33" t="s">
-        <v>106</v>
       </c>
       <c r="E33">
         <v>35</v>
@@ -1396,10 +1390,10 @@
         <v>5</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -1410,10 +1404,10 @@
         <v>5</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E35">
         <v>50</v>
@@ -1424,10 +1418,10 @@
         <v>5</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E36">
         <v>50</v>
@@ -1438,10 +1432,10 @@
         <v>5</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E37">
         <v>440</v>
@@ -1452,10 +1446,10 @@
         <v>22</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
         <v>101</v>
-      </c>
-      <c r="D39" t="s">
-        <v>102</v>
       </c>
       <c r="E39">
         <v>40</v>
@@ -1466,10 +1460,10 @@
         <v>22</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E40">
         <v>150</v>
@@ -1489,7 +1483,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
